--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_250.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -528,358 +538,370 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:13.120000', '0:00:19.960000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_188</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1052955665024631</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:33.431496', '0:00:38.307687')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -888,315 +910,280 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.46, 15.6)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(124.702789, 130.612267)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
